--- a/tabular/eve/epv-erythyro-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-erythyro-refseqs-side-data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E225C20-BC6E-3849-88B6-B234806C3074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F21015-6934-8149-AABE-5F35182EEF84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{2CCDC7F5-49D5-E94A-84D8-68DF3FAF2277}"/>
+    <workbookView xWindow="12360" yWindow="6440" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{2CCDC7F5-49D5-E94A-84D8-68DF3FAF2277}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="34">
   <si>
     <t>sequenceID</t>
   </si>
@@ -98,15 +99,9 @@
     <t>virus_genus</t>
   </si>
   <si>
-    <t>fasta-refseqs-epv</t>
-  </si>
-  <si>
     <t>reference</t>
   </si>
   <si>
-    <t>nk</t>
-  </si>
-  <si>
     <t>NK</t>
   </si>
   <si>
@@ -123,6 +118,24 @@
   </si>
   <si>
     <t>erthryo.2-dolichotis_patagonum</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>fasta-refseqs-erythyro-epv</t>
+  </si>
+  <si>
+    <t>virus_subfamily</t>
+  </si>
+  <si>
+    <t>assign_clade</t>
+  </si>
+  <si>
+    <t>assign_subclade</t>
+  </si>
+  <si>
+    <t>Parvovirinae</t>
   </si>
 </sst>
 </file>
@@ -199,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -211,7 +224,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -537,151 +549,430 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8F3AFE-A2C5-2F46-9666-C9FF200A622E}">
   <dimension ref="A1:U3"/>
   <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="45.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CDEB45-2B2D-5640-8765-ED5799D7E31C}">
+  <dimension ref="A1:Y3"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G3" sqref="A1:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="H2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="S2" s="7" t="s">
+      <c r="X2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="10" t="s">
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="8">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="S3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="10" t="s">
+      <c r="X3" s="6" t="s">
         <v>27</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/eve/epv-erythyro-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-erythyro-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F21015-6934-8149-AABE-5F35182EEF84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6B0D1E-45BB-3847-B0B5-0E438DDAFB8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12360" yWindow="6440" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{2CCDC7F5-49D5-E94A-84D8-68DF3FAF2277}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
   <si>
     <t>sequenceID</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>Parvovirinae</t>
+  </si>
+  <si>
+    <t>erythyro.1-indri</t>
+  </si>
+  <si>
+    <t>erythyro.2-dolichotis</t>
+  </si>
+  <si>
+    <t>Erythyroparvovirus</t>
   </si>
 </sst>
 </file>
@@ -748,15 +757,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CDEB45-2B2D-5640-8765-ED5799D7E31C}">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="A1:Y3"/>
+      <selection activeCell="F2" sqref="A1:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,19 +838,16 @@
       <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -856,22 +862,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>22</v>
@@ -900,19 +906,16 @@
       <c r="X2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="9" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
@@ -927,22 +930,22 @@
         <v>1</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>22</v>
@@ -971,9 +974,6 @@
       <c r="X3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="9" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabular/eve/epv-erythyro-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-erythyro-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6B0D1E-45BB-3847-B0B5-0E438DDAFB8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095E9179-833D-AF4C-978A-D3FF1660282F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12360" yWindow="6440" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{2CCDC7F5-49D5-E94A-84D8-68DF3FAF2277}"/>
   </bookViews>
@@ -759,11 +759,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CDEB45-2B2D-5640-8765-ED5799D7E31C}">
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="A1:X3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
+    <col min="23" max="23" width="24.5" customWidth="1"/>
+    <col min="24" max="24" width="28.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -879,19 +887,19 @@
       <c r="M2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="5" t="s">
+      <c r="N2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="S2" s="6"/>
@@ -947,19 +955,19 @@
       <c r="M3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="5" t="s">
+      <c r="N3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="S3" s="6"/>
